--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="858">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test6/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="858">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31074,13 +31074,13 @@
         <v>89</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>89</v>
@@ -31107,7 +31107,7 @@
         <v>89</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>89</v>
@@ -31119,10 +31119,10 @@
         <v>89</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>89</v>
@@ -31149,10 +31149,10 @@
         <v>89</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="AF5" s="5" t="s">
         <v>89</v>
@@ -31161,7 +31161,7 @@
         <v>89</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="AI5" s="5" t="s">
         <v>89</v>
@@ -31170,7 +31170,7 @@
         <v>89</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="AL5" s="5" t="s">
         <v>89</v>
@@ -32109,70 +32109,70 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>89</v>
@@ -32184,28 +32184,28 @@
         <v>89</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>89</v>
@@ -32214,10 +32214,10 @@
         <v>89</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15">
@@ -32704,7 +32704,7 @@
         <v>89</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>89</v>
@@ -32740,7 +32740,7 @@
         <v>89</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>89</v>
@@ -33043,7 +33043,7 @@
         <v>89</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>89</v>
@@ -33097,7 +33097,7 @@
         <v>89</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>89</v>
@@ -33112,7 +33112,7 @@
         <v>89</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>89</v>
@@ -33127,7 +33127,7 @@
         <v>89</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>89</v>
@@ -33142,7 +33142,7 @@
         <v>89</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>89</v>
@@ -33454,7 +33454,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33481,7 +33481,7 @@
         <v>89</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>89</v>
@@ -33490,10 +33490,10 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26">
@@ -33507,7 +33507,7 @@
         <v>89</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>89</v>
@@ -33573,10 +33573,10 @@
         <v>89</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>89</v>
@@ -33591,7 +33591,7 @@
         <v>89</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>89</v>
@@ -33733,10 +33733,10 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
@@ -33745,61 +33745,61 @@
         <v>89</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33811,28 +33811,28 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="AH28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>89</v>
@@ -34751,7 +34751,7 @@
         <v>89</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="AG36" s="5" t="s">
         <v>89</v>
@@ -34763,7 +34763,7 @@
         <v>89</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AK36" s="5" t="s">
         <v>89</v>
@@ -35009,115 +35009,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40">
@@ -35125,115 +35125,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41">
@@ -35241,115 +35241,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>118</v>
+        <v>274</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>118</v>
+        <v>386</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>118</v>
+        <v>418</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>118</v>
+        <v>446</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>118</v>
+        <v>482</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>118</v>
+        <v>514</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>118</v>
+        <v>546</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>118</v>
+        <v>574</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>118</v>
+        <v>596</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>118</v>
+        <v>617</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>118</v>
+        <v>649</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>118</v>
+        <v>683</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>118</v>
+        <v>716</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>118</v>
+        <v>745</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>118</v>
+        <v>772</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>118</v>
+        <v>798</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>118</v>
+        <v>817</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>118</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42">
